--- a/biology/Histoire de la zoologie et de la botanique/Richard_Harlan/Richard_Harlan.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Richard_Harlan/Richard_Harlan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Richard Harlan est un médecin, un zoologiste et un paléontologue américain, né le 19 septembre 1796 à Philadelphie et mort le 30 septembre 1843 à La Nouvelle-Orléans.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il rejoint durant ses études de médecine l'Academy of Natural Sciences, la première société savante d'histoire naturelle des États-Unis d'Amérique. Après avoir obtenu son titre de docteur en 1818, il sert comme médecin de bord et voyage en Inde durant une année.
 Il rentre en 1819 aux États-Unis et obtient un poste de démonstrateur à l'école d'anatomie privée Parrish de Philadelphie. De 1820 à 1822, il est médecine au dispensaire de la ville et de 1822 à 1838 à l'hôpital Alms House. Durant sa carrière, il doit affronter l'épidémie de choléra de 1832.
